--- a/Not_Accessible_Websites.xlsx
+++ b/Not_Accessible_Websites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,42 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://nyan.ax</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://maiwandbank.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://acehardware.af</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Not_Accessible_Websites.xlsx
+++ b/Not_Accessible_Websites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,42 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://azizibank.af</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://leighton-co.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://ahg.af</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Not_Accessible_Websites.xlsx
+++ b/Not_Accessible_Websites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,18 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://kardan.edu.af</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Not_Accessible_Websites.xlsx
+++ b/Not_Accessible_Websites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,5142 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://iwaweb.org</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://crida.gov.af</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://dca-vet.nl</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://pajhwok.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://mof.gov.af</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://mediamark.af</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://ace.af</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://npa.gov.af</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://gs.mil.al</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://eaglemobile.al</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://abi.al</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://manetci.al</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://tirana.gov.al</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://unyt.edu.al</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://cacttus.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://abissnet.al</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://vizionplus.tv</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://fibank.al</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://ikubinfo.al</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://promarketingal.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://albcontrol.al</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://devollhydropower.al</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://albanianscreen.tv</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://hygeia.al</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://spar.al</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://smartworknet.eu</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://tetra.al</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://commprog.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://amd-tirana.al</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://brunes.al</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://acer.org.al</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://jumbo.al</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://uart.edu.al</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://add.al</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://sheratontiranahotel.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://bconnect.al</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://aths-travel.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://lpalbania.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://porsche.al</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://bntelectronics.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://kosovalive360.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://allegorie.tv</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://hayat.dz</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://ray-consulting.com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://aps.dz</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://arpt.dz</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://aom-dz.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://enp.edu.dz</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://cder.dz</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://amenhyd.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://arkasline.com.tr</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://wanaconsulting.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://divona.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://sabisystems.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://batenco-ouest.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://cesi-algerie.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://fnibad.org</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://softal-construction.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://groupehasnaoui.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://frater-razes.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://falcon-motors.com</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://univ-bechar.dz</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://petpecole.com</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://amana.dz</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://avocats-dz.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://sbc-dz.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://sheratonclubdespins.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://merinal.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://prainsacevico.com</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://anwarnet.dz</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://ibnrochd.com</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://avenirdeco.dz</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://itsolutions.dz</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://bna.dz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://airexpressdz.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://arableasing-dz.com</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://trust-assurances.dz</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://macirvie.com</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://mlaleasing.com</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://fpandajobs.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://gft-dz.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://it2s.dz</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://addisplay-dz.com</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://alfatron-dz.com</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://groupe-eden.com</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://saa.dz</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://insim.dz</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://sodi-automotive.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://global-sarl.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://somiz-dz.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://martimetal.dz</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://cevitalmtp.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://karouikaroui.com</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://cybertech-e.net</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://ams-mercedes-benz.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://bellat.net</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://egicibnsina.com</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://doudah.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://christianostiguy.com</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://bdl.dz</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://far-algerie.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://eaglerockcp.com</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://cbs-xerox.com</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://portalger.com.dz</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://sporthotels.ad</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://crowehorwath.ad</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://andorradifusio.ad</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://caldea.com</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://cea.ad</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://nagrup.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://alianca.es</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://commencal-store.com</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://tidak-trading.com</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://fidelidade.co.ao</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://ops-angola.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://bpa.ao</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://bdm.co.ao</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://express-angola.com</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://opcc.net</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://ensa.co.ao</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://soapro.co.ao</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://multitel.co.ao</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://tistech.co.ao</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://grupozwela.com</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://jupiter.co.ao</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://lmc.co.ao</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://chitotolo.com</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://candando.com</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://epal.gv.ao</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://servisair.co.ao</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://somoil.co.ao</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://angolaenvironmentalservices.com</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://angolatelecom.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://esdy.edu.gr</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://isqapave.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://novacambios.com</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://unia.ao</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://poltec.co.ao</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://isitnet.com</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://nossaseguros.ao</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://caipirinhalounge.com</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://multirede.co.ao</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://finibancoangola.co.ao</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://bancopostal.ao</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://jobartis.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://rayan-ao.com</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://hoteltalatona.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://geneaangola.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://ecil.co.ao</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://tvcabo.co.ao</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://velonet.net</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://roberthudson.ao</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://vistawaste.co.ao</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://avm.biz</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://executive-angola.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://novagest.co.ao</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://eurostral.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://angonet.org</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://vapengenharia.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://fatimafreitas.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://mediplus.co.ao</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://medtech.co.ao</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://globalseguros.ao</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://fil-angola.co.ao</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://chevroninangola.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://compuserv.co.ao</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://rcsangola.com</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://espacos-angola.com</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://perola-negra.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://omnidata.co.ao</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://casacon.com</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://interoilangola.com</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://multipessoal.co.ao</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://prodel.co.ao</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://hrdangola.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://orcangola.co.ao</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://endiama.co.ao</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://skynahotels.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://grupoarena.co.ao</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://xyami.co.ao</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://mediarumo.co.ao</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://ddmangola.com</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://oncorporate.com</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://casadosfrescos.co.ao</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://tsolnetworks.com</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://tnxcorp.com</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://dadalogisitca.com.ar</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://tallereslosandes.com.ar</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://favacard.com.ar</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://gruposupervielle.com</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://sol.com.ar</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://wenance.com</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://yamaha-motor.com.ar</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://suizoargentina.com</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://veronica.com.ar</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://bld.com.ar</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://emprenurban.com</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://italcred.com</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://megatrans.com.ar</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://funiversitas.org</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://autotrol.com.ar</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://linkdata.com.br</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://utedyc.org.ar</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://rosario-conicet.gov.ar</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://alvarezarguelles.com</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://wobi.com</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://spf.gob.ar</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://staples.com.ar</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://gigared.com.ar</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://emerix.com.ar</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://cadena3.com</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://loganmedia.mobi</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://innovativa.biz</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://glamit.com.ar</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://biblostravel.com</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://eurofarmaargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://hotelespanamericano.com</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://dtsconsulting.com</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://fortaleza.com.ar</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://axonier.com.ar</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://tesis.com</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://mediamaxargentina.com</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://argensun.com.ar</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://irt-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://conwayandpartners.com</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://kmg.com.ar</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://telered.com.ar</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://gruporhuo.com</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://eseade.edu.ar</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://calico-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://arlei.com</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://famiq.com.ar</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://ideared.org</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://intecoargentina.com</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://fcbandfire.com</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://dukeargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://stato.tv</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://rionegro.com.ar</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://casabianchi.com.ar</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://ssn.gob.ar</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://recsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://bancochubut.com.ar</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://fenhoteles.com</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://envasesdelplata.com</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://asistir.net</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://cac.com.ar</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://sp-argentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://solutionbox.com.ar</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://cibic.com.ar</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://inesaargentina.com</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://novocap.com</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://aseguradorafederal.com.ar</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://inadi.gob.ar</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://rosariobus.com.ar</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://fabricasrl.com.ar</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://indicom.com.ar</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://prevencionsalud.com.ar</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://isadora.com.ar</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://tuteur.com.ar</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://transatlantica.travel</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://acciona-it.com</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://centauroarg.com.ar</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://elnorte.com.ar</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://aconcaguasf.com</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://fondationforge.org</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://tintafresca.com.ar</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://muaa.com.ar</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://rappargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://frbb.edu.ar</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://dicsys.biz</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://neumovent.com</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://bancoprivado.com.ar</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://redbee.io</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://trefoil-limited.com</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://redguard.com.ar</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://ptn.gov.ar</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://coderhouse.com</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://plapiqui.edu.ar</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://conin.org.ar</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://darriens.com</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://brandlivecommerce.com</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://velezsarsfield.com.ar</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://plataforma10.com</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://samconsult.com</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://tupperware.com.ar</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://mrm.com.ar</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://rapela.com.ar</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://enapsipetrol.com.ar</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://molinosagro.com.ar</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://cys.com.ar</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://telemercado.com.ar</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://iguanafix.com</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://veritran.net</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://interservices.com.ar</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://microglobal.com</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://grupoplaza.com.ar</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://wiperagency.net</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://luminaamericas.com</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://hospitalitaliano.edu.ar</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://summasolutions.net</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://ituran.com.ar</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://rafaelaalimentos.com</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://amco.com.ar</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://afa.org.ar</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://rsmargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://tsbsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://jobbtl.com</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://insite-la.com</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://ayres.com.ar</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://pmlatam.com</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://moron.gov.ar</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://marinetti.cl</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://grupodass.com.ar</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://icana.org.ar</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://crafmsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://corebi.com.ar</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://landia.com</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://ad-cap.com</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://santiagosaenz.com</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://vantage.com.ar</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://alberdi.com</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://ascentio.com.ar</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://abeledogottheil.com.ar</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://biogreen.com.ar</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://esolutions.com.ar</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://bancotdf.com.ar</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://connaxis.com</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://asap-consulting.com.ar</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://gobbinovag.com</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://diprem.com.ar</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://degiacomo.com</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://donbue.com</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://aaci.org.ar</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://galander.com</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://smn.gov.ar</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://stenfar.com.ar</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://valot.com.ar</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://cari.org.ar</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://qbit.com.ar</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://nsbworks.com</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://grupoconcesionarios.com</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://machinalis.com</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://cmifitzroy.com.ar</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://nextperience.net</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://dominiumrelgov.com.br</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://iflow21.com</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://colegioconcordia.com.br</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://wurth.com.ar</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://petroleraargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://donweb.com</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://pure.com.ar</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://conciencia.org</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://dapsa.com</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://dohastudio.com</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://tecnoap.com</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://upempresarial.edu.ar</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://deelo.com.ar</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://scania.com.ar</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://iosper.gov.ar</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://admifarmgroup.com</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://grupomonarca.com.ar</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://ultrapetrol.com.ar</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://ucaecemdp.edu.ar</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://parroquialamerced.org</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://eandina.com</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://bigbox.com.ar</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://paretto.com.ar</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://tecnolab.com.ar</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://isi-solutions.com</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://gba.gob.ar</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://libertad.org.ar</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://autospecial.com.ar</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://denverfarma.com.ar</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://sra.org.ar</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://lps.com.ar</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://8amarketing.com</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://edsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://visuallatina.com</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://coasincom.com.ar</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://hojoar.com</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://hidalgoyasociados.com</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://intektoys.com</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://amr.org.ar</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://motivarte.com</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://montich.com.ar</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://socialsnack.com</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://origenes.com.ar</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://farmesa.com</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://fundaciongutenberg.edu.ar</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://gilbarco.com.ar</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://binsersa.com.ar</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://topgroup.com.ar</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://scouts.org.ar</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://alphacredit.mx</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://alianzafrancesa.org.ar</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://centrodeformacion.com</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://bci-consulting.com</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://prom.com.ar</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://durlock.com</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://nacionfides.com.ar</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://frubis.com</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://aldeasinfantiles.org.ar</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://traslada.com.ar</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://iapg.org.ar</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://malba.org.ar</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://cpb.com.ar</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://mitrol.net</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://diffupar.com</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://flargent.com</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://laprensa.com.ar</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://brotherad.com</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://ilva.com.ar</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://ladevi.com</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://gshr.com.ar</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://garbarinoviajes.com</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://aguilar-arzinc.com</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://chelagarto.com</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://argentia.com.ar</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://tecnomyl.com.ar</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://megaflex.com.ar</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://masvida.com.ar</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://rigolleau.com.ar</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://complement-ar.com</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://censys.com.ar</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://viviendadigna.org.ar</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://tte.com.ar</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://insside.net</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://dulcor.com.ar</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Not_Accessible_Websites.xlsx
+++ b/Not_Accessible_Websites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5677,6 +5677,4590 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://crexellsa.com</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://serialdelatorre.com</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://marcoconsultora.com</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://pgyk.net</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://apholos.com</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://wallchase.com</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://cdt.com.ar</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://activocc.com</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://tiempoargentino.com.ar</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://bagues.com.ar</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://vagconcept.com.ar</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://neotel.com.ar</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://dacas.com</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://proyekta.com.ar</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://siu.edu.ar</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://aapresid.org.ar</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://esteticabsas.com</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://tecnoaccion.com.ar</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://buenavidapatagonia.com</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://casinasoc.com</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://burgwardt.com.ar</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>https://publiquest.net</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://mobilinker.com</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>https://ejes.com</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://carboclor.com.ar</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>https://intercontinentalmendoza.com</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://imrconsulting.com</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://stgeorges.edu.ar</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>https://patripoliticaspublicas.com</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>https://quirogamedios.com</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://jus.gob.ar</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://sealy.com.ar</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>https://iac.com.ar</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://santacatalinaclinica.com</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>https://vitnik.com</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>https://tucanotours.com.ar</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>https://costacruceros.com</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://addoc.com.ar</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>https://tassaroli.com.ar</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://sageo.com.ar</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>https://icsred.com.ar</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://harrenmedia.com</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>https://kinexo.com</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>https://maco.com.ar</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://uno.edu.ar</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://tanoiracassagne.com</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>https://donorione.org.ar</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://lozadaviajes.com</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://agrofy.com</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://mobileworks.com.ar</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>https://tallertechnologies.com</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://grupodragon.net</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://ddm.com.ar</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://piamonteonline.com</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://iugr.edu.ar</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://virtualmindsoftware.com</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://muratoreobras.com.ar</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://bancomeridian.com.ar</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://artwaresolution.com</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://holoscapital.com.ar</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://olivia-la.com</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://atmseguros.com.ar</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://cagnoli.com</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://aiesec.org.ar</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://aguasdecorrientes.com</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://avenida.com</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://kentucky.cl</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://raipur.com.ar</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://crzconstrucciones.com</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://usi.edu.ar</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://planex.com.ar</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://folderit.net</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://vassallifabril.com.ar</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://soluciones.com.ar</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://huesped.org.ar</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://ebv.com.ar</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://cv1sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://whalecom.com.ar</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://sigma.com.ar</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://tglt.com</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://grupoinsud.com</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://feelingvertigo.com</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://cedi.com.ar</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://futbolsites.net</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://aluflex.com.ar</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://lalacteo.com</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://psf.com.ar</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://mgmyasoc.com</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://bwcomunicacion.com</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://sondeos.com.ar</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://vivatia.com</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://cup.edu.ar</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://expofrut.com.ar</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://aeroterra.com</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://credencial.com.ar</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://prodeman.com</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://regal-pacific.com</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://seidor.com.ar</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://gruposervicemen.com</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://catainternacional.com</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://mazalan.com</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://edelflex.com</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://federada.com</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://friggorina.com</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://axont.com</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://plastiferro.com</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://arizmendi.com</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://zippyinfo.com</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://alfavinil.com</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://igionline.com.ar</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://pedrazavyt.com.ar</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://greccolog.com.br</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://semperti.com</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://cristalesdisur.com.ar</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://kaitzen-solutions.com</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://promostar-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://integrago.com</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://equinoxe.com.ar</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://turismosalta.gov.ar</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://gni.com.ar</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://buhl.com.ar</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://cpi.com.ar</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://tarjetaplata.com</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://alpat.com.ar</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://spansource.com</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://papeleriaentrerios.com</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://lmneuquen.com.ar</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://copsa-arg.com</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://actiontravel.com.ar</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://juliatours.tur.ar</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://escueladecreativos.com.ar</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://redstareventos.com</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://lagomarsino.com.ar</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>https://tbwa.com.ar</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://tusa.com.ar</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://akiabara.com</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://bristolmedicine.com.ar</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://clubsanlorenzo.com.ar</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://goglobal-consulting.com</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://aerolab.co</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://inicia.org.ar</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://nec.com.ar</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://montironi.com</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://pestalozzi.edu.ar</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://maklerseguros.com.ar</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://itsalogistica.com.ar</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://indear.com</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://grupomost.com</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://newcycle.com.ar</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://proguidemc.com</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://junior.org.ar</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://competir.com</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://undergroundprod.com.ar</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://lemiropietroboni.com.ar</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://sotic.com.ar</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://karatex.com.ar</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://innovabc.com.ar</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://apgconsulting.com.ar</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://admotion.com.ar</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://ba-technology.net</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://aper.net</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://ransecurity.com</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://prudenciaseg.com.ar</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://bancoroela.com.ar</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://advertmind.com</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://beth.org.ar</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://thecatena.com</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://policlinicomodelo.com.ar</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://villanueva.com.ar</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://enard.org.ar</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://terrero.edu.ar</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://odebrecht.com.ar</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://pmipr.org.br</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://tandanor.com.ar</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://webar.com</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://fecliba.org.ar</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://realplanning.com.ar</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://datafactory.la</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://tiamaruca.com.ar</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://marketone.com.ar</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://bulonfer.com.ar</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://buschi.com.ar</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://pla.com.ar</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://ebayacasal.com.ar</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://dipaola.com.ar</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://argentilemon.com</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://colegiomater.edu.ar</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://publicar.com.ar</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://brulex.com.br</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://bvision.com</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>https://eof.com.ar</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>https://logisticadonpedro.com.ar</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>https://hormetal.com</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>https://colegiosanpatricio.edu.ar</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>https://mundoamtae.com</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>https://muresco.com</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>https://igdigital.com</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>https://lakaut.com.ar</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://cpcecba.org.ar</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://generali.com.ar</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://ftyc.com.ar</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://uvlatam.com</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://utntyh.com</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://e-ciasa.com</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://ellecktra.com</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://foro21.com.ar</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://atalimentaria.com.ar</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://synchro-technologies.com</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://gruposarapura.com.ar</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://10pines.com</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://lxargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://unionbat.com</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://marlew.com.ar</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://edrans.com</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://bautec-sa.com</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://x-28.com</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://comahueseguridad.com.ar</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://cofarmen.com.ar</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://villagecines.com</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://psf-it.com.ar</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://jenck.com</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://enratio.com</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://bio4.com.ar</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://geoprocesados.com</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://breasolans.com.ar</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://farestaie.com.ar</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://quadiontech.com</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://inclusion.cloud</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://autofrance.com.ar</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://tallion.com</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://tecnovax.com.ar</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://parkmasonbrokers.com</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://ceitech.com.ar</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://sistemasgalileo.net</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://sictec.com.ar</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://sacoa.com</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://grupoagroempresa.com.ar</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://texproil.com.ar</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://nucleovirtual.com</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://loisuites.com.ar</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://cbreargentina.com</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://vksur.com</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://taringa.net</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://grupoicts.com.br</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://cloudgaia.com</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://pixargentina.com</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://ferrocarriloeste.org.ar</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://gmilenio.com.ar</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://cmseventos.com</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://carloseenriquezsa.com</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://felfort.com.ar</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://autosdelsur.com.ar</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://centroclaudina.org.ar</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://justootero-srl.com.ar</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://valkimia.com</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://personally.com.ar</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>https://qubit.tv</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>https://luigibosca.com.ar</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>https://adca.org.ar</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>https://complementos-ar.com</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>https://edenred.com.ar</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>https://andesonline.com</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>https://southcrosslog.com</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>https://druidics.com.ar</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>https://gridosa.com.ar</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>https://neumasur.com.ar</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>https://rhpro.com</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>https://electrocomponentes.com</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://sidesys.com</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://aramark.com.ar</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>https://rfconsultora.com.ar</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>https://suremptec.com</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>https://net-learning.com.ar</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>https://herbalife.com.ar</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>https://vmnplus.com</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>https://meliabuenosaires.com.ar</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>https://grupoharmony.com</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>https://clinicaadventista.com.ar</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>https://ip-tel.com.ar</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>https://sonico.com</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>https://sanatorioallende.com</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>https://pcglatam.com</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>https://remasa.com.ar</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>https://businessbureau.com</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>https://eldiadegualeguaychu.com.ar</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>https://alurraldejasper.com</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>https://axionlift.com</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>https://cointec.com</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>https://bmros.com.ar</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>https://colegiosanagustin.com.ar</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>https://paktar.com.ar</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>https://monroeamericana.com.ar</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>https://yapublicidad.com</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>https://sixthvowel.com</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>https://bcr.com.ar</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>https://manantiales.org</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>https://tecplata.com</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>https://lepore.com.ar</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>https://ucsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>https://elster.com.ar</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>https://ngdstudios.com</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>https://hrstrategy.com.ar</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>https://leadermusic.com</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>https://maincal.com.ar</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>https://zapatosunicos.com.ar</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>https://alimentosrefrigerados.com.ar</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>https://mercapsoftware.com</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>https://borigenbetzel.com.ar</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>https://datalytics.com</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>https://emepamendoza.com</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>https://enersystem.com</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>https://eag.edu.ar</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>https://larocagimnasio.com.ar</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>https://engee.com.ar</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>https://ign.gob.ar</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>https://verion.com.ar</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>https://linz-ag.com.ar</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>https://mapfre.com.ar</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>https://ciapi.com.ar</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>https://microautomacion.com</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>https://ivax.com.ar</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>https://ahkargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>https://firstcfa.com</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>https://rosental.com</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>https://cecaitra.org.ar</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>https://arussoniello.com.ar</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>https://tnplatex.com</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>https://farmaciasdrahorro.com.ar</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>https://proimi.org.ar</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>https://geopagos.com</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>https://bioceres.com.ar</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>https://hsconsulting.com.ar</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>https://clinicamg.com.ar</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>https://rickysarkany.com</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>https://teknaria.com</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>https://kenwin.net</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>https://trans.com.ar</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>https://ta.com.ar</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>https://autocity.com.ar</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>https://tplogistica.com</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>https://madero.org</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>https://voicenter.com.ar</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>https://edelweiss.com.ar</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>https://planexware.com</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>https://cardinalsisa.com</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>https://arbusta.org</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>https://prg.ar</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>https://sanatorio-norte.com.ar</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>https://scandinavian.com.ar</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>https://estudiocarrusel.com</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>https://lab-brouwer.com.ar</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>https://pomera.com.ar</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>https://qb9.net</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>https://grupoinforme.com.br</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>https://convexia.com.ar</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>https://martinaditrento.com</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>https://mccann.com.ar</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>https://trimix.com.ar</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>https://moscuzza.com</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>https://gruponucleo.com.ar</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>https://swanar.com</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>https://cnrsida.org.ar</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>https://brunomatarazzo.com.ar</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>https://wormholeit.com</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>https://3arroyos.com</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>https://solans.com</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>https://disabsudamericana.com</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>https://redpsicoterapeutica.com.ar</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>https://caruso.com.ar</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>https://surpapel.com.ar</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>https://sap.org.ar</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>https://lyaglobalservice.com</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>https://bck-id.com</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>https://tpcgco.com</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>https://ovobrand.com</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>https://siesa.com.ar</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>https://grupokoner.com</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>https://apsanet.com.ar</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>https://flexxus.com.ar</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>https://industriabasica.com</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>https://quadminds.com</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>https://proydesa.org</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Not_Accessible_Websites.xlsx
+++ b/Not_Accessible_Websites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B819"/>
+  <dimension ref="A1:B1275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10261,6 +10261,5478 @@
         </is>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>https://yuhmak.com.ar</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>https://metropoliscf.com</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>https://institutoasegurador.com.ar</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>https://mga.gov.ar</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>https://casarosada.gob.ar</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>https://redmutual.com.ar</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>https://instdelbicentenario.com.ar</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>https://hexagonconsulting.net</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>https://lujandecuyo.gob.ar</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>https://usuaria.org.ar</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>https://lop.com.ar</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>https://123seguro.com</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>https://pezzati.com</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>https://primary.com.ar</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>https://info-consulting.com.ar</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>https://markova.com</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>https://culligan.com.ar</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>https://autologica.com</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>https://bauenpilay.com.ar</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>https://castex.com.ar</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>https://ospat.com.ar</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>https://ejesa.com.ar</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>https://personalia.com.ar</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>https://hairrecovery.com.ar</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>https://arcangelmaggio.com.ar</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>https://smc.edu.ar</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>https://mobilecomputing.com.ar</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>https://implantainformatica.com.br</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>https://sursem.com.ar</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>https://argentina.travel</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>https://bluepatagon.com</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>https://avh.com.ar</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>https://papelprensa.com</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>https://knack.com.ar</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>https://extendeal.com</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>https://bfmyl.com</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>https://sysone.com</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>https://ciudadculturalkonex.org</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>https://bofrost.es</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>https://magromer.com.ar</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>https://estadodigital.com</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>https://drovet.com</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>https://portfoliopersonal.com</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>https://bodegadanterobino.com</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>https://weisz.com</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>https://profesoradoconsudec.edu.ar</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>https://tandemtechnology.com.ar</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>https://casi.com.ar</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>https://globalnewsgroup.com</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>https://teatrocolon.org.ar</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>https://transba.com.ar</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>https://nippurmedia.com</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>https://infas.com.ar</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>https://ricardojellinek.com.ar</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>https://grimbergdentales.com</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>https://morken.com.ar</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>https://diariopopular.com.ar</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>https://netactica.com</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>https://chicos.net.ar</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>https://provincanje.com.ar</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>https://casasurhotel.com</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>https://micropack.com</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>https://ownhotels.com</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>https://cmspeople.com</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>https://acamica.com</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>https://enerc.gob.ar</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>https://vricom.com.ar</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>https://oversoft.net</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>https://metro.com.ar</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>https://kalpakian.com</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>https://mstechnologies.biz</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>https://neunet.com.ar</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>https://bizitglobal.com</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>https://titcs.com.br</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>https://iguazugrand.com</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>https://ijeditores.com</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>https://labdl.com.ar</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>https://lesamisviajes.com</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>https://generalurquiza.com.ar</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>https://ecipsa.com</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>https://clinicaboedo.com.ar</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>https://extendit.com.ar</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>https://ccborges.org.ar</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>https://jardindelpilar.com.ar</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>https://lidherma.com</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>https://flixtranslations.com</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>https://sanroman.edu.ar</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>https://griensu.com</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>https://aliargestiona.com</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>https://mapaci.com.ar</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>https://sipel.com.ar</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>https://osetya.com.ar</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>https://sergiovillella.com</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>https://neverland.com.ar</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>https://catalinascenter.com.ar</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>https://ean.edu.ar</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>https://thecapita.com</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>https://universidadsiglo21.es</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>https://cevasa.com.ar</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>https://cmfitzroy.com.ar</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>https://grupomanagers.com</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>https://direcciona.com</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>https://parquedelacosta.com.ar</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>https://cardinalsystems.com.ar</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>https://anura.com.ar</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>https://electrosurweb.com</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>https://ar-ifs.com</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>https://donto.com.ar</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>https://emege.com</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>https://wmargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>https://ctrl365.com</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>https://rctzz.com.ar</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>https://fiduciariadelnorte.com.ar</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>https://segufer.com.ar</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>https://uala.com.ar</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>https://bdev.com.ar</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>https://matba.com.ar</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>https://cdv.com.ar</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>https://bullmarketbrokers.com</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>https://ospesalud.com.ar</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>https://pullmen.com</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>https://roundtableinc.net</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>https://mundose.org</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>https://fischer.com.ar</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>https://vusecurity.com</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>https://emetech.com.ar</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>https://papmendoza.com</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>https://cpau.org</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>https://veinfar.com.ar</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>https://pamperousointensivo.com.ar</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>https://paolini-sa.com</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>https://osfe.org.ar</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>https://starseg.com.ar</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>https://cerronegro.com.ar</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>https://shimano.com.br</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>https://minfinanzas.gob.ar</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>https://favra.com.ar</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>https://hendel.com</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>https://wtf-agency.com</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>https://undec.edu.ar</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>https://microlending.com.ar</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>https://aero.tur.ar</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>https://ditecar.com.ar</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>https://pablorossi.com.ar</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>https://cabelma.com</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>https://tecnipisos.com.ar</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>https://brandigital.com</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>https://avalfederal.com.ar</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>https://stmary.edu.ar</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>https://apla.com.ar</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>https://meieryfischer.com.ar</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>https://clement.com.ar</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>https://grupoalmar.com.ar</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>https://sadesa.com.ar</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>https://cpasteur.com.ar</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>https://anselmi.com.ar</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>https://supermercadobeltran.com.ar</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>https://convivir.com</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>https://fizzmod.com</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>https://uhs.edu.ar</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>https://agenciaego.com.ar</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>https://adbarbieri.com.ar</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>https://agpruden.com.ar</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>https://sanlorenzo.com.ar</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>https://cecab.com.ar</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>https://d3sistemas.com.ar</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>https://gbconsulting.com.ar</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>https://bp-4.com</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>https://voyer.com.ar</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>https://ostara360.com.ar</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>https://rv.com.ar</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>https://fpvs.org</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>https://ceefis.com.ar</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>https://ibr.com.ar</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>https://amca.org.ar</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>https://ulc.com.ar</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>https://cafedositio.com.br</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>https://bertolaccini.com</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>https://lesaffre.com.ar</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>https://grupoharasdelsur.com</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>https://trentunofactori.com</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>https://someco.com.ar</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>https://um-ink.com</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>https://zetech.com.ar</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>https://bodegastoso.com.ar</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>https://aapublicidad.org.ar</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>https://abs-international.com.ar</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>https://farmanet.com.ar</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>https://cascosverdes.org</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>https://estanciaschiripa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>https://st-martin.com.ar</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>https://arconsultores.com.ar</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>https://overseas.com.ar</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>https://siderurgia.org.ar</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>https://plan-it.com.ar</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>https://derivadosvinicos.com.ar</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>https://baires-sa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>https://vostu.com</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>https://ceop.com.ar</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>https://northia.com.ar</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>https://coopunion.com.ar</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>https://tbo.com.ar</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>https://iunigo.com.ar</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>https://encendercomunicacion.com</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>https://odeasrl.com.ar</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>https://bccba.com.ar</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>https://bertora.com</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>https://colegioaleman.com.ar</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>https://bpdsolutions.com</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>https://experis.com.ar</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>https://zoovet.com.ar</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>https://greatplacetowork.com.ar</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>https://emmsa.net</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>https://clinicalcla.com</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>https://point.com.ar</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>https://unisolutions.com.ar</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>https://ofishop.com</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>https://matsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>https://electrolux.com.ar</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>https://tercertermino.com.ar</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>https://kamchatka.com.ar</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>https://cohensistemas.com.ar</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>https://montrealonline.com.br</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>https://3xmgroup.com</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>https://srconsultores.com.ar</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>https://atrimglobal.com</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>https://adinqn.gov.ar</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>https://simtlix.com</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>https://gruporobayna.com.ar</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>https://cook-master.com.ar</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>https://resolutioncrs.com</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>https://mapei.com.ar</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>https://mineraexar.com.ar</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>https://tcrpnet.com</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>https://clariphy.com.ar</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>https://consumax.com.ar</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>https://preteco.com</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>https://silvaortiz.com.ar</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>https://atucha.net</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>https://crosmed.com</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>https://invertirenbolsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>https://lebasi.com.mx</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>https://atanor.com.ar</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>https://tarjetagrupar.com</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>https://bandex.com.ar</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>https://ospg.org.ar</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>https://faciplac.edu.br</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>https://estudioroldan.net</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>https://romipack.com</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>https://grupoblend.com</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>https://tel3.com.ar</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>https://iceweb.com.ar</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>https://increase.com.ar</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>https://psicologiasocial.org.ar</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>https://infonegocios.info</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>https://tarjetacredicash.com</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>https://muchnik.co</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>https://criteria.com.ar</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>https://tacticasoft.com</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>https://institutoneeds.com.ar</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>https://daria.com.ar</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>https://h-move.com</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>https://cfs.com.ar</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>https://sicorp.net</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>https://imagen.cl</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>https://bigger.cl</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>https://biotay.com</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>https://nuevacom.com.ar</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>https://stoller.com.ar</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>https://funes.com.ar</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>https://easytech.com.ar</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>https://voii.com.ar</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>https://sagosa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>https://ingrammicroargentina.com</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>https://eysa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>https://nubity.com</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>https://amlogweb.com</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>https://cargo-sa.com</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>https://electromisiones.com.ar</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>https://praxair.com.ar</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>https://turismo-pecom.com.ar</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>https://debmedia.com</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>https://dbdideasturisticas.com</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>https://scms.edu.ar</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>https://softwareamerica.com.ar</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>https://yachtcpm.com</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>https://hellomassive.com</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>https://proximo.cc</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>https://aomsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>https://grupooxean.com</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>https://plus54.com</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>https://hvtalent.com</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>https://drogueria-avenida.com.ar</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>https://grisbill.com</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>https://radiomaria.org.ar</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>https://managro.com.ar</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>https://lea.com.ar</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>https://uxorit.com</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>https://metallon.com.ar</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>https://selmec.com.ar</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>https://csf.com.ar</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>https://fenix.com.ar</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>https://paloborracho.com</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>https://caei.com.ar</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>https://renuevatucloset.com</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>https://aconra.com.ar</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>https://asea.com.ar</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>https://cedim-global.com</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>https://speedagro.com</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>https://zma.com.ar</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>https://chapelco.com</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>https://lbosa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>https://agrosudsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>https://ddw.com.ar</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>https://361argentina.com</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>https://delaostia.net</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>https://synagro.com.ar</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>https://provefarma.com.ar</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>https://proyecciones.net</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>https://andecam.com.ar</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>https://jacovideo.com.ar</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>https://guilford.com.ar</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>https://pani.com.ar</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>https://mercadomccann.com</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>https://artech-consulting.com</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>https://marketingmedia.com.ar</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>https://nordelta.com</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>https://progres.com.ar</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>https://pmi.org.ar</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>https://xona.com.ar</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>https://marelli.com.ar</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>https://publinet.com.ar</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>https://bancoprovincia.com.ar</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>https://mundialatacadista.com.br</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>https://opensolutions.com.ar</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>https://emprecred.com.ar</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>https://andes-eng.com.ar</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>https://iron-group.com</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>https://hertz.com.ar</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>https://grupoesfera.com.ar</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>https://agustiniano.net</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>https://fcdn.org.ar</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>https://interwin.com.ar</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>https://teknosgroup.com</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>https://psag.com.ar</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>https://jpsargentina.com</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>https://mklenceria.com.ar</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>https://iceba.edu.ar</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>https://readymind.ms</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>https://dcpc.com.ar</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>https://tarquini.com.ar</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>https://belfix.com.br</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>https://plavicon.com</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>https://intechsp.com</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>https://canal7mendoza.com.ar</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>https://nadarclub.com.ar</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>https://villegas.gov.ar</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>https://sisa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>https://peralesaguiar.com.ar</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>https://edg.org.gt</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>https://cidi.com.ar</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>https://iupa.edu.ar</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>https://holder-korpus.com</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>https://pkfargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>https://zonajobs.com</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>https://opratel.com</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>https://qbkconsulting.com</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>https://skytel.com.ar</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>https://jpggrupo.com</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>https://nexions.com</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>https://wanama.com</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>https://aspatagonia.com.ar</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>https://alasingenieria.com</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>https://gapsa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>https://arslanian.com.ar</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>https://ensolsa.com</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>https://brotead.com</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>https://shitsuke.com.ar</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>https://somosdcg.com</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>https://greeneat.com.ar</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>https://bancointerfinanzas.com.ar</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>https://frtb.com.ar</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>https://cinemad.tv</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>https://finaersa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>https://adyargentina.com.ar</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>https://rsk.co</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>https://chasmatours.com</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>https://pinoonline.com.ar</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>https://provengroup.com.ar</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>https://pegasusvc.com</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>https://bodegaargento.com</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>https://mjh.org.ar</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>https://umanaonline.com.ar</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>https://safybi.org</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>https://demotores.com.ar</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>https://quantumamerica.com</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>https://reygraz.com</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>https://alejandro1hotel.com.ar</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>https://voluntarioglobal.org</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>https://musicayeventos.com.ar</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>https://capitalhumano.com.ar</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>https://cservices.com.ar</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>https://reliable.com.ar</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>https://finandino.com.ar</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>https://oneinfoconsulting.com</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>https://soldati.com</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>https://xappia.com</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>https://leadaki.com</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>https://ddas.com.ar</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>https://ingalfa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>https://ellitoral.com.ar</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>https://dilfer.com.ar</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>https://ohgiftcard.com</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>https://analytical.com</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>https://cnp.com.ar</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>https://cesyt.edu.ar</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>https://modelosdigitales.net</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>https://ashiwea.com</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>https://rapi-estant.com.ar</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>https://jpu.com.ar</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>https://sistemasps.com</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>https://timacagro.com.ar</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>https://partnersplb.com.ar</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>https://agnosticit.com</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>https://consejodebomberos.com.ar</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>https://vacavaliente.com</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>https://amesud.com.ar</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>https://megainver.com</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>https://monthelado.com.ar</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>https://prevencion-es-cuidar-se.blogspot.com</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>https://nan-labs.com</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>https://pentasa.com.ar</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>https://desarrollosnea.com</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>https://brandknight.net</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>https://xinergia.com</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>https://cabcbue.com.ar</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>https://metmedicinaprivada.com</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>https://tron.co</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>https://danone.com.ar</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>https://leer.org.ar</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>https://dalde.com.ar</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>https://retesar.com</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>https://icommkt.com</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>https://werthein.com.ar</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>https://autotag.com.ar</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>https://dash-deportes.com.ar</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>https://tarjetanexo.com.ar</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>https://lixis.com</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>https://mrpartners.com.ar</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>https://upj.com.ar</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>https://darwoft.com</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>https://acudiremergencias.com.ar</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>https://ouclock.com</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>https://famiq.com</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>https://cruzadapatagonica.org</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>https://sherwin.com.ar</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
